--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -503,6 +503,16 @@
 </t>
   </si>
   <si>
+    <t>MedicationAdministration.extension:oncofair-element-form</t>
+  </si>
+  <si>
+    <t>oncofair-element-form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-element-form}
+</t>
+  </si>
+  <si>
     <t>MedicationAdministration.modifierExtension</t>
   </si>
   <si>
@@ -533,7 +543,7 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
+    <t>Unique identifier of the administration element in the HIS.</t>
   </si>
   <si>
     <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
@@ -542,7 +552,7 @@
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Id. élément administration</t>
+    <t>idElementAdministration</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -554,7 +564,291 @@
     <t>.id</t>
   </si>
   <si>
-    <t>MedicationAdministration.identifier.id</t>
+    <t>MedicationAdministration.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>Plan this is fulfilled by this administration</t>
+  </si>
+  <si>
+    <t>A plan that is fulfilled in whole or in part by this MedicationAdministration.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-medicationadministration-report)
+</t>
+  </si>
+  <si>
+    <t>The medication administration report linked to the element of administration</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular event is a component or step.</t>
+  </si>
+  <si>
+    <t>MedicationDispense will be used to indicate waste.</t>
+  </si>
+  <si>
+    <t>COMPTE RENDU D'ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.status</t>
+  </si>
+  <si>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|5.0.0</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>RXA-20 Completion Status</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9 Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category</t>
+  </si>
+  <si>
+    <t>Type of medication administration</t>
+  </si>
+  <si>
+    <t>The type of medication administration (for example, drug classification like ATC, where meds would be administered, legal category of the medication).</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>codeElementAdministration</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category:nature</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(Medication)
+</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
+  </si>
+  <si>
+    <t>RXA-5 Administered Code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who received medication</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>PID-3 Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter administered as part of</t>
+  </si>
+  <si>
+    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>PV1-19 Visit Number</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional information to support administration</t>
+  </si>
+  <si>
+    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
+  </si>
+  <si>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod</t>
+  </si>
+  <si>
+    <t>occurencePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -573,7 +867,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationAdministration.identifier.extension</t>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -588,600 +885,143 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationAdministration.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.start</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.value</t>
+    <t>Actual start date and time of administration of the administration element</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>dateHeureDebutEffective</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.end</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].end</t>
+  </si>
+  <si>
+    <t>Effective date and time for ending administration of the administration element</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>dateHeureFinEffective</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.recorded</t>
+  </si>
+  <si>
+    <t>When the MedicationAdministration was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.isSubPotent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Full dose was not administered</t>
+  </si>
+  <si>
+    <t>An indication that the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subPotentReason</t>
+  </si>
+  <si>
+    <t>Reason full dose was not administered</t>
+  </si>
+  <si>
+    <t>The reason or reasons why the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-subpotent-reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who or what performed the medication administration and what type of performance they did</t>
+  </si>
+  <si>
+    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>RXA-10 Administering Provider / PRT-5 Participation Person: PRT-4 Participation='AP' (RXA-10 is deprecated)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Identifier of the administration report</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ident-1
-</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>Plan this is fulfilled by this administration</t>
-  </si>
-  <si>
-    <t>A plan that is fulfilled in whole or in part by this MedicationAdministration.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-medicationadministration-report)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular event is a component or step.</t>
-  </si>
-  <si>
-    <t>MedicationDispense will be used to indicate waste.</t>
-  </si>
-  <si>
-    <t>COMPTE RENDU D'ADMINISTRATION</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.status</t>
-  </si>
-  <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|5.0.0</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>RXA-20 Completion Status</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9 Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category</t>
-  </si>
-  <si>
-    <t>Type of medication administration</t>
-  </si>
-  <si>
-    <t>The type of medication administration (for example, drug classification like ATC, where meds would be administered, legal category of the medication).</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Code élément administration</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category:form</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>Forme</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category:nature</t>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>Présentation</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(Medication)
-</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
-  </si>
-  <si>
-    <t>RXA-5 Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Who received medication</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject[x]</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>PID-3 Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter administered as part of</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>PV1-19 Visit Number</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additional information to support administration</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod</t>
-  </si>
-  <si>
-    <t>occurencePeriod</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.start</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>D/H début effective</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.end</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>D/H fin effective</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.recorded</t>
-  </si>
-  <si>
-    <t>When the MedicationAdministration was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.isSubPotent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Full dose was not administered</t>
-  </si>
-  <si>
-    <t>An indication that the full dose was not administered.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subPotentReason</t>
-  </si>
-  <si>
-    <t>Reason full dose was not administered</t>
-  </si>
-  <si>
-    <t>The reason or reasons why the full dose was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-subpotent-reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who or what performed the medication administration and what type of performance they did</t>
-  </si>
-  <si>
-    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>RXA-10 Administering Provider / PRT-5 Participation Person: PRT-4 Participation='AP' (RXA-10 is deprecated)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.id</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
   </si>
   <si>
@@ -1298,6 +1138,97 @@
     <t>ORC-2 Placer Order Number / ORC-3 Filler Order Number</t>
   </si>
   <si>
+    <t>MedicationAdministration.request.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.request.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.request.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t>ref-2
+ref-1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.request.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient") - must be a resource in resources</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a known RESTful URL) or by resolving the target of the reference.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.request.identifier</t>
+  </si>
+  <si>
+    <t>Unique identifier of the prescription element to which this administration element responds</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
+This element only allows for a single identifier. In the case where additional identifers are required, use the [http://hl7.org/fhir/StructureDefinition/additionalIdentifier](http://hl7.org/fhir/extensions/StructureDefinition-additionalIdentifier.html) extension.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-2
+</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.request.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>MedicationAdministration.device</t>
   </si>
   <si>
@@ -1305,13 +1236,13 @@
 </t>
   </si>
   <si>
-    <t>Device used to administer</t>
+    <t>Specifies, where applicable, the medical devices or equipment to be used to administer the product. By default, the associated devices are those listed in the prescription element associated with the administration element</t>
   </si>
   <si>
     <t>The device that is to be used for the administration of the medication (for example, PCA Pump).</t>
   </si>
   <si>
-    <t>Dispositifs associés</t>
+    <t>dispositifsAssocies</t>
   </si>
   <si>
     <t>device-&gt;Access  OR device-&gt;AssignedDevice</t>
@@ -1343,28 +1274,31 @@
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
   </si>
   <si>
-    <t>MedicationAdministration.note:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Libellé élément administration</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.note:description.id</t>
+    <t>MedicationAdministration.note:wording</t>
+  </si>
+  <si>
+    <t>wording</t>
+  </si>
+  <si>
+    <t>Wording of the administration element</t>
+  </si>
+  <si>
+    <t>libelleElementAdministration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.note:wording.id</t>
   </si>
   <si>
     <t>MedicationAdministration.note.id</t>
   </si>
   <si>
-    <t>MedicationAdministration.note:description.extension</t>
+    <t>MedicationAdministration.note:wording.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.note.extension</t>
   </si>
   <si>
-    <t>MedicationAdministration.note:description.author[x]</t>
+    <t>MedicationAdministration.note:wording.author[x]</t>
   </si>
   <si>
     <t>MedicationAdministration.note.author[x]</t>
@@ -1389,7 +1323,7 @@
     <t>Act.participant[typeCode=AUT].role</t>
   </si>
   <si>
-    <t>MedicationAdministration.note:description.time</t>
+    <t>MedicationAdministration.note:wording.time</t>
   </si>
   <si>
     <t>MedicationAdministration.note.time</t>
@@ -1407,7 +1341,7 @@
     <t>Act.effectiveTime</t>
   </si>
   <si>
-    <t>MedicationAdministration.note:description.text</t>
+    <t>MedicationAdministration.note:wording.text</t>
   </si>
   <si>
     <t>MedicationAdministration.note.text</t>
@@ -1429,28 +1363,31 @@
     <t>Act.text</t>
   </si>
   <si>
-    <t>MedicationAdministration.note:comment</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.note:comment.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.note:comment.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.note:comment.author[x]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.note:comment.time</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.note:comment.text</t>
+    <t>MedicationAdministration.note:comments</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Comment attached to the administration element</t>
+  </si>
+  <si>
+    <t>commentaires</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.note:comments.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.note:comments.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.note:comments.author[x]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.note:comments.time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.note:comments.text</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage</t>
@@ -1499,7 +1436,7 @@
     <t>MedicationAdministration.dosage.site</t>
   </si>
   <si>
-    <t>Body site administered to</t>
+    <t>Specifies, where applicable, the exact point on the body where the product is to be applied to the patient. By default, the place of administration is that shown in the prescription element associated with the administration element</t>
   </si>
   <si>
     <t>A coded specification of the anatomic site where the medication first entered the body.  For example, "left arm".</t>
@@ -1514,7 +1451,7 @@
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
   </si>
   <si>
-    <t>Lieu administration</t>
+    <t>lieuAdministration</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1526,7 +1463,7 @@
     <t>MedicationAdministration.dosage.route</t>
   </si>
   <si>
-    <t>Path of substance into body</t>
+    <t>Specifies the route of administration of the product. By default, it is the one shown in the prescription element associated with the administration element.</t>
   </si>
   <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.</t>
@@ -1538,7 +1475,7 @@
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
-    <t>Voie administration</t>
+    <t>voieAdministration</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1550,7 +1487,7 @@
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered</t>
+    <t>Type of administration element. Must be used to differentiate between management processes adapted to different types of drug treatment.</t>
   </si>
   <si>
     <t>A coded value indicating the method by which the medication is intended to be or was introduced into or on the body.  This attribute will most often NOT be populated.  It is most commonly used for injections.  For example, Slow Push, Deep IV.</t>
@@ -1565,7 +1502,7 @@
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
   </si>
   <si>
-    <t>Type élément administration</t>
+    <t>typeElementAdministration</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -1946,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1974,7 +1911,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -3523,43 +3460,41 @@
         <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3607,7 +3542,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3631,7 +3566,7 @@
         <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>76</v>
@@ -3639,14 +3574,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3656,27 +3591,29 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3724,7 +3661,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3736,19 +3673,19 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
@@ -3756,10 +3693,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3767,13 +3704,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
@@ -3782,15 +3719,17 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3839,31 +3778,31 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3871,14 +3810,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3897,17 +3836,15 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3944,19 +3881,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3968,7 +3905,7 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3980,7 +3917,7 @@
         <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3988,10 +3925,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3999,35 +3936,33 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -4051,13 +3986,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -4075,13 +4010,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -4090,27 +4025,27 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4118,7 +4053,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4127,26 +4062,24 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -4170,13 +4103,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -4194,10 +4127,10 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
@@ -4212,24 +4145,24 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4240,7 +4173,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4249,23 +4182,19 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4277,7 +4206,7 @@
         <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>76</v>
@@ -4289,13 +4218,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -4313,13 +4242,13 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
@@ -4331,24 +4260,24 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4359,29 +4288,27 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4394,7 +4321,7 @@
         <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>76</v>
@@ -4406,46 +4333,44 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4454,20 +4379,22 @@
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4485,16 +4412,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4521,13 +4448,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4545,13 +4472,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -4560,7 +4487,7 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4569,20 +4496,22 @@
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4600,20 +4529,18 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4638,13 +4565,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4662,13 +4589,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4677,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4686,18 +4613,18 @@
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4705,10 +4632,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4717,18 +4644,20 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4753,13 +4682,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4777,13 +4706,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4795,24 +4724,24 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4826,7 +4755,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>76</v>
@@ -4835,17 +4764,15 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4894,13 +4821,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4909,27 +4836,27 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4937,7 +4864,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -4946,23 +4873,21 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4987,13 +4912,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -5011,10 +4936,10 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>88</v>
@@ -5029,24 +4954,24 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5069,13 +4994,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5102,13 +5027,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -5126,7 +5051,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5144,24 +5069,24 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5169,28 +5094,28 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5217,19 +5142,19 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5239,13 +5164,13 @@
         <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -5254,30 +5179,30 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>76</v>
@@ -5290,22 +5215,22 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5332,13 +5257,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5356,13 +5281,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -5371,31 +5296,29 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5416,13 +5339,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5449,13 +5372,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5479,16 +5402,16 @@
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5497,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5505,23 +5428,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5533,15 +5454,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5566,31 +5489,31 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5602,10 +5525,10 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5614,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>76</v>
@@ -5622,10 +5545,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5648,16 +5571,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5683,13 +5606,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5707,42 +5630,42 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5750,7 +5673,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -5765,20 +5688,24 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="R33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5822,42 +5749,42 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5877,16 +5804,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5937,7 +5864,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5955,24 +5882,24 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5983,7 +5910,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5995,13 +5922,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6052,13 +5979,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -6073,10 +6000,10 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -6084,10 +6011,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6095,10 +6022,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -6107,16 +6034,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6143,35 +6070,35 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -6183,28 +6110,26 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6213,10 +6138,10 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>76</v>
@@ -6225,13 +6150,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6282,13 +6207,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -6300,24 +6225,24 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6340,13 +6265,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6397,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6406,7 +6331,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
@@ -6421,7 +6346,7 @@
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6429,14 +6354,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6458,13 +6383,13 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6502,19 +6427,19 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6538,7 +6463,7 @@
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6546,44 +6471,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6631,22 +6558,22 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6655,18 +6582,18 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6686,27 +6613,23 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q41" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6726,13 +6649,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6750,7 +6673,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6759,33 +6682,33 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6793,7 +6716,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -6808,13 +6731,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6865,10 +6788,10 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>88</v>
@@ -6883,13 +6806,13 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6897,10 +6820,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6911,7 +6834,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6923,13 +6846,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6956,13 +6879,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6980,13 +6903,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6998,24 +6921,24 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7026,10 +6949,10 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>76</v>
@@ -7038,15 +6961,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7071,11 +6996,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -7093,13 +7020,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -7108,27 +7035,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7139,7 +7066,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -7148,16 +7075,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>90</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7208,53 +7135,53 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>268</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -7266,15 +7193,17 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7311,31 +7240,31 @@
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -7347,7 +7276,7 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7355,21 +7284,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7378,19 +7307,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7440,19 +7369,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -7464,7 +7393,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7472,46 +7401,44 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7535,13 +7462,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7559,19 +7486,19 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -7591,10 +7518,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7614,18 +7541,20 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7650,13 +7579,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7674,7 +7603,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7683,7 +7612,7 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>100</v>
@@ -7692,13 +7621,13 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7706,10 +7635,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7717,7 +7646,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7732,15 +7661,17 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7789,16 +7720,16 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7807,13 +7738,13 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>392</v>
+        <v>133</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7821,10 +7752,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7838,7 +7769,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>76</v>
@@ -7847,13 +7778,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7880,13 +7811,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7904,7 +7835,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7919,27 +7850,27 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7947,10 +7878,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>89</v>
@@ -7962,17 +7893,15 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -8009,25 +7938,23 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
@@ -8036,41 +7963,43 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>76</v>
@@ -8079,13 +8008,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8136,7 +8065,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8151,27 +8080,27 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8182,10 +8111,10 @@
         <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>76</v>
@@ -8194,13 +8123,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>266</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>267</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8212,7 +8141,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>401</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8239,41 +8168,43 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>268</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8281,23 +8212,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8309,15 +8238,17 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>419</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8354,19 +8285,19 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>276</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8378,19 +8309,19 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>76</v>
@@ -8398,10 +8329,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8409,7 +8340,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8421,18 +8352,20 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>172</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8442,7 +8375,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8481,7 +8414,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>174</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8490,10 +8423,10 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -8505,29 +8438,29 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>176</v>
+        <v>415</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8536,20 +8469,18 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8586,31 +8517,31 @@
         <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -8622,18 +8553,18 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8641,7 +8572,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8656,17 +8587,15 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8715,10 +8644,10 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -8739,7 +8668,7 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>133</v>
@@ -8747,12 +8676,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8770,16 +8701,16 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8830,13 +8761,13 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
@@ -8845,27 +8776,27 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8885,16 +8816,16 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>90</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>449</v>
+        <v>266</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8906,7 +8837,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8945,19 +8876,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>268</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8969,31 +8900,29 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>452</v>
+        <v>270</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -9005,15 +8934,17 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -9050,19 +8981,19 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>276</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9074,19 +9005,19 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>76</v>
@@ -9094,10 +9025,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9105,7 +9036,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -9117,18 +9048,20 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>172</v>
+        <v>411</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9138,7 +9071,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -9177,7 +9110,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>174</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9186,10 +9119,10 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -9201,29 +9134,29 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>176</v>
+        <v>415</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -9232,20 +9165,18 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9282,31 +9213,31 @@
         <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -9318,18 +9249,18 @@
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9337,7 +9268,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9352,17 +9283,15 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9411,10 +9340,10 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>88</v>
@@ -9435,7 +9364,7 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>133</v>
@@ -9443,10 +9372,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9460,22 +9389,22 @@
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9526,7 +9455,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9538,7 +9467,7 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>441</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -9550,18 +9479,18 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9569,7 +9498,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9581,16 +9510,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>448</v>
+        <v>320</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>449</v>
+        <v>266</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9641,19 +9570,19 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>268</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -9665,32 +9594,32 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>452</v>
+        <v>270</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>76</v>
@@ -9699,15 +9628,17 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>366</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>462</v>
+        <v>273</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9756,19 +9687,19 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>461</v>
+        <v>276</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>464</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9780,7 +9711,7 @@
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>465</v>
+        <v>270</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>76</v>
@@ -9788,42 +9719,46 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>172</v>
+        <v>324</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9871,19 +9806,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9895,7 +9830,7 @@
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>76</v>
@@ -9903,21 +9838,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9929,17 +9864,15 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9988,19 +9921,19 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -10012,7 +9945,7 @@
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>176</v>
+        <v>450</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>76</v>
@@ -10020,46 +9953,44 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>378</v>
+        <v>453</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
       </c>
@@ -10083,13 +10014,13 @@
         <v>76</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>76</v>
@@ -10107,22 +10038,22 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -10131,18 +10062,18 @@
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10165,13 +10096,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10198,13 +10129,13 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -10222,7 +10153,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10231,13 +10162,13 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -10246,18 +10177,18 @@
         <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10280,16 +10211,16 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10315,13 +10246,13 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10339,7 +10270,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10354,7 +10285,7 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -10363,18 +10294,18 @@
         <v>76</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10397,15 +10328,17 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>192</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -10430,13 +10363,13 @@
         <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>486</v>
+        <v>76</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>487</v>
+        <v>76</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>76</v>
@@ -10454,7 +10387,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10463,13 +10396,13 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -10478,18 +10411,18 @@
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10512,16 +10445,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10547,13 +10480,13 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>495</v>
+        <v>76</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>496</v>
+        <v>76</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -10571,7 +10504,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10580,13 +10513,13 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>497</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -10595,18 +10528,18 @@
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10617,7 +10550,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -10629,16 +10562,16 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10688,16 +10621,16 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>100</v>
@@ -10712,248 +10645,14 @@
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AO77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10963,7 +10662,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -470,7 +470,11 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Boolean attribute indicating the notion of urgency in creating the administration element</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the notion of emergency. 
+Extension créée dans le cadre d'OncoFAIR contenant la notion d'urgence.</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:oncofair-ma-element-expirationdate</t>
@@ -483,6 +487,13 @@
 </t>
   </si>
   <si>
+    <t>Expiry date of administered component</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the expiry date of the component administered. 
+Extension créée dans le cadre d'OncoFAIR contenant la date de péremption du composant administré.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:oncofair-ma-element-traceability</t>
   </si>
   <si>
@@ -493,6 +504,10 @@
 </t>
   </si>
   <si>
+    <t>Extension created as part of OncoFAIR containing the batch and serial number of the administered component/administration element. 
+Extension créée dans le cadre d'OncoFAIR contenant le numéro de lot et de série du composant administré/élément d'administration.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:oncofair-ma-plannedperiod</t>
   </si>
   <si>
@@ -503,6 +518,10 @@
 </t>
   </si>
   <si>
+    <t>Extension created as part of OncoFAIR containing the planned start and end date of administration. 
+Extension créée dans le cadre d'OncoFAIR contenant la date de début et de fin prévue de l'administration.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:oncofair-element-form</t>
   </si>
   <si>
@@ -511,6 +530,13 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-element-form}
 </t>
+  </si>
+  <si>
+    <t>Pharmaceutical form of the prescription/administration item</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFair containing the drug form. 
+Extension créée dans le cadre d'OncoFair contenant la forme du médicament.</t>
   </si>
   <si>
     <t>MedicationAdministration.modifierExtension</t>
@@ -3020,10 +3046,10 @@
         <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3106,13 +3132,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -3134,13 +3160,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3223,13 +3249,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -3251,13 +3277,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3340,13 +3366,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -3368,13 +3394,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3457,13 +3483,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3485,13 +3511,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3574,14 +3600,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3603,16 +3629,16 @@
         <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3661,7 +3687,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3693,10 +3719,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3719,16 +3745,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3778,7 +3804,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3793,16 +3819,16 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3810,10 +3836,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3836,13 +3862,13 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3893,7 +3919,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3917,7 +3943,7 @@
         <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3925,10 +3951,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3951,16 +3977,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4010,7 +4036,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4025,16 +4051,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>76</v>
@@ -4042,10 +4068,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4071,13 +4097,13 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4106,10 +4132,10 @@
         <v>112</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -4127,7 +4153,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -4145,24 +4171,24 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4185,13 +4211,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4218,13 +4244,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -4242,7 +4268,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4260,24 +4286,24 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4300,13 +4326,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4333,19 +4359,19 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
@@ -4355,7 +4381,7 @@
         <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4370,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4379,7 +4405,7 @@
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
@@ -4387,13 +4413,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
@@ -4415,13 +4441,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4448,13 +4474,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4472,7 +4498,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4487,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4496,7 +4522,7 @@
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4504,13 +4530,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
@@ -4532,13 +4558,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4565,13 +4591,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4589,7 +4615,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4604,7 +4630,7 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4613,7 +4639,7 @@
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
@@ -4621,10 +4647,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4647,16 +4673,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4682,13 +4708,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4706,7 +4732,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -4724,24 +4750,24 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4764,13 +4790,13 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4821,7 +4847,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4839,24 +4865,24 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4879,13 +4905,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4936,7 +4962,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4954,24 +4980,24 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4994,13 +5020,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5051,7 +5077,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5072,10 +5098,10 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>76</v>
@@ -5083,10 +5109,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5109,13 +5135,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5154,7 +5180,7 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5164,7 +5190,7 @@
         <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5182,27 +5208,27 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>76</v>
@@ -5224,13 +5250,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5281,7 +5307,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5299,24 +5325,24 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5342,10 +5368,10 @@
         <v>90</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5396,7 +5422,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5405,7 +5431,7 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -5420,7 +5446,7 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5428,14 +5454,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5457,13 +5483,13 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5504,7 +5530,7 @@
         <v>138</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
@@ -5513,7 +5539,7 @@
         <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5537,7 +5563,7 @@
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>76</v>
@@ -5545,10 +5571,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5571,16 +5597,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5630,7 +5656,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5639,13 +5665,13 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5654,18 +5680,18 @@
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5688,23 +5714,23 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q33" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>76</v>
@@ -5749,7 +5775,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5758,13 +5784,13 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5773,18 +5799,18 @@
         <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5807,13 +5833,13 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5864,7 +5890,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5885,10 +5911,10 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5896,10 +5922,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5922,13 +5948,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5979,7 +6005,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6011,10 +6037,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6037,13 +6063,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6070,11 +6096,11 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -6092,7 +6118,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6124,10 +6150,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6150,13 +6176,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6207,7 +6233,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6225,24 +6251,24 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6265,13 +6291,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6322,7 +6348,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6331,7 +6357,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
@@ -6346,7 +6372,7 @@
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6354,14 +6380,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6383,13 +6409,13 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6439,7 +6465,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6463,7 +6489,7 @@
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6471,14 +6497,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6500,16 +6526,16 @@
         <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6558,7 +6584,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6590,10 +6616,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6616,13 +6642,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6649,13 +6675,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6673,7 +6699,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6691,13 +6717,13 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6705,10 +6731,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6731,13 +6757,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6788,7 +6814,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -6806,13 +6832,13 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6820,10 +6846,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6846,13 +6872,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6879,13 +6905,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6903,7 +6929,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6921,24 +6947,24 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6961,16 +6987,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7020,7 +7046,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7035,27 +7061,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7081,10 +7107,10 @@
         <v>90</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7135,7 +7161,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7144,7 +7170,7 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
@@ -7159,7 +7185,7 @@
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -7167,14 +7193,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7196,13 +7222,13 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7243,7 +7269,7 @@
         <v>138</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>76</v>
@@ -7252,7 +7278,7 @@
         <v>139</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7276,7 +7302,7 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7284,10 +7310,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7310,16 +7336,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7369,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7378,7 +7404,7 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>100</v>
@@ -7401,10 +7427,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7430,13 +7456,13 @@
         <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7462,13 +7488,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7486,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7518,10 +7544,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7544,16 +7570,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7603,7 +7629,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7612,7 +7638,7 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>100</v>
@@ -7627,7 +7653,7 @@
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7635,10 +7661,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7661,16 +7687,16 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7720,7 +7746,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7729,7 +7755,7 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7752,10 +7778,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7778,13 +7804,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7835,7 +7861,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7850,7 +7876,7 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7859,18 +7885,18 @@
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7893,13 +7919,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7938,7 +7964,7 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
@@ -7948,7 +7974,7 @@
         <v>139</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7966,13 +7992,13 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>76</v>
@@ -7980,13 +8006,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="C53" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
@@ -8008,13 +8034,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8065,7 +8091,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8080,16 +8106,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -8097,10 +8123,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8126,10 +8152,10 @@
         <v>90</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8141,7 +8167,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8180,7 +8206,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8189,7 +8215,7 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -8204,7 +8230,7 @@
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8212,14 +8238,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8241,13 +8267,13 @@
         <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8288,7 +8314,7 @@
         <v>138</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
@@ -8297,7 +8323,7 @@
         <v>139</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8321,7 +8347,7 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>76</v>
@@ -8329,10 +8355,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8355,16 +8381,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8414,7 +8440,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8438,7 +8464,7 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>133</v>
@@ -8446,10 +8472,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8472,13 +8498,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8529,7 +8555,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8553,7 +8579,7 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>133</v>
@@ -8561,10 +8587,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8587,13 +8613,13 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8644,7 +8670,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>88</v>
@@ -8668,7 +8694,7 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>133</v>
@@ -8676,13 +8702,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
@@ -8704,13 +8730,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8761,7 +8787,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8776,16 +8802,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>76</v>
@@ -8793,10 +8819,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8822,10 +8848,10 @@
         <v>90</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8837,7 +8863,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8876,7 +8902,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8885,7 +8911,7 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
@@ -8900,7 +8926,7 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>76</v>
@@ -8908,14 +8934,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8937,13 +8963,13 @@
         <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8984,7 +9010,7 @@
         <v>138</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
@@ -8993,7 +9019,7 @@
         <v>139</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9017,7 +9043,7 @@
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>76</v>
@@ -9025,10 +9051,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9051,16 +9077,16 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9110,7 +9136,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9134,7 +9160,7 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>133</v>
@@ -9142,10 +9168,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9168,13 +9194,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9225,7 +9251,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9249,7 +9275,7 @@
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>133</v>
@@ -9257,10 +9283,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9283,13 +9309,13 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9340,7 +9366,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>88</v>
@@ -9364,7 +9390,7 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>133</v>
@@ -9372,10 +9398,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9398,13 +9424,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9455,7 +9481,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9467,7 +9493,7 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -9479,7 +9505,7 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>76</v>
@@ -9487,10 +9513,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9513,13 +9539,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9570,7 +9596,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9579,7 +9605,7 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
@@ -9594,7 +9620,7 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>76</v>
@@ -9602,14 +9628,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9631,13 +9657,13 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9687,7 +9713,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9711,7 +9737,7 @@
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>76</v>
@@ -9719,14 +9745,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9748,16 +9774,16 @@
         <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9806,7 +9832,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9838,10 +9864,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9864,13 +9890,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9921,7 +9947,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9930,7 +9956,7 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -9945,7 +9971,7 @@
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>76</v>
@@ -9953,10 +9979,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9979,16 +10005,16 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10014,13 +10040,13 @@
         <v>76</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>76</v>
@@ -10038,7 +10064,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10053,7 +10079,7 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -10062,18 +10088,18 @@
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10096,13 +10122,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10129,13 +10155,13 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -10153,7 +10179,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10168,7 +10194,7 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -10177,18 +10203,18 @@
         <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10211,16 +10237,16 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10246,13 +10272,13 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10270,7 +10296,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10285,7 +10311,7 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -10294,18 +10320,18 @@
         <v>76</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10328,16 +10354,16 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10387,7 +10413,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10396,7 +10422,7 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10411,18 +10437,18 @@
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10445,16 +10471,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10504,7 +10530,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10513,7 +10539,7 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
@@ -10528,18 +10554,18 @@
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10562,16 +10588,16 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10621,7 +10647,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10645,7 +10671,7 @@
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>76</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Corresponds to the activity induced by a prescription item and its dosage (structured or unstructured), and carried out at a given moment.</t>
+    <t>Corresponds to the activity induced by a prescription item and its dosage (structured or unstructured), and carried out at a given moment. 
+Correspond à l’activité induite par un élément de prescription et sa posologie (structurée ou non), et réalisée à un instant donné.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -269,7 +270,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>ELEMENT ADMINISTRATION</t>
+    <t>ElementAdministration</t>
   </si>
   <si>
     <t>Event</t>
@@ -622,7 +623,7 @@
     <t>MedicationDispense will be used to indicate waste.</t>
   </si>
   <si>
-    <t>COMPTE RENDU D'ADMINISTRATION</t>
+    <t>CompteRenduAdministration</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1152,7 +1153,7 @@
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
   </si>
   <si>
-    <t>ELEMENT PRESCRIPTION</t>
+    <t>ElementPrescription</t>
   </si>
   <si>
     <t>Event.basedOn</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1496,10 +1496,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/voie-administration-valueset</t>
   </si>
   <si>
     <t>voieAdministration</t>
@@ -1523,10 +1520,7 @@
     <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/siph-typeeltpla-oncofair-valueset</t>
   </si>
   <si>
     <t>typeElementAdministration</t>
@@ -1943,8 +1937,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.48828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -10156,13 +10150,11 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y71" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -10195,27 +10187,27 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>474</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10241,13 +10233,13 @@
         <v>205</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10273,13 +10265,11 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10297,7 +10287,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10312,27 +10302,27 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10355,16 +10345,16 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10414,7 +10404,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10438,18 +10428,18 @@
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10472,16 +10462,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10531,7 +10521,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10555,18 +10545,18 @@
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10589,16 +10579,16 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10648,7 +10638,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10672,7 +10662,7 @@
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>76</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -767,6 +767,135 @@
     <t>RXA-5 Administered Code</t>
   </si>
   <si>
+    <t>MedicationAdministration.medication.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;code value="element"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
@@ -878,38 +1007,10 @@
     <t>MedicationAdministration.occurence[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.occurence[x]:occurencePeriod.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.occurence[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.occurence[x]:occurencePeriod.start</t>
@@ -1043,10 +1144,6 @@
   </si>
   <si>
     <t>MedicationAdministration.performer.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.extension</t>
@@ -1904,7 +2001,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1914,7 +2011,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="67.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.77734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="34.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4770,7 +4867,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4782,16 +4879,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4842,53 +4939,53 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AO25" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4900,15 +4997,17 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4945,54 +5044,54 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5003,7 +5102,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -5012,16 +5111,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5072,13 +5171,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -5093,10 +5192,10 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>76</v>
@@ -5104,10 +5203,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5115,7 +5214,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5127,16 +5226,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5175,85 +5274,87 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5290,54 +5391,54 @@
         <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5348,7 +5449,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5357,19 +5458,23 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5378,7 +5483,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5417,19 +5522,19 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5441,29 +5546,29 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5472,21 +5577,23 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5522,31 +5629,31 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -5558,18 +5665,18 @@
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5577,7 +5684,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5592,17 +5699,15 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5651,7 +5756,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5660,13 +5765,13 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5675,18 +5780,18 @@
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5694,7 +5799,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -5709,24 +5814,20 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q33" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5770,42 +5871,42 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5825,16 +5926,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5885,7 +5986,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5903,24 +6004,24 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5931,7 +6032,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5943,13 +6044,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6000,13 +6101,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -6021,10 +6122,10 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -6032,10 +6133,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6043,10 +6144,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -6055,16 +6156,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6091,35 +6192,35 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -6131,26 +6232,28 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6159,10 +6262,10 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>76</v>
@@ -6171,13 +6274,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6228,13 +6331,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -6246,24 +6349,24 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6286,13 +6389,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6343,7 +6446,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6352,7 +6455,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
@@ -6367,7 +6470,7 @@
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6375,10 +6478,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6404,10 +6507,10 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>169</v>
@@ -6448,19 +6551,19 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6484,7 +6587,7 @@
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6492,46 +6595,44 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6579,22 +6680,22 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6603,18 +6704,18 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6634,23 +6735,27 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6670,13 +6775,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6694,7 +6799,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6703,33 +6808,33 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6737,7 +6842,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -6752,13 +6857,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6809,10 +6914,10 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>88</v>
@@ -6827,13 +6932,13 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6841,10 +6946,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6855,7 +6960,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6867,13 +6972,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6900,13 +7005,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6924,13 +7029,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6942,24 +7047,24 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6970,10 +7075,10 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>76</v>
@@ -6982,17 +7087,15 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7017,13 +7120,11 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -7041,13 +7142,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -7056,27 +7157,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7087,7 +7188,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -7096,16 +7197,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7156,53 +7257,53 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -7214,17 +7315,15 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7261,31 +7360,31 @@
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -7297,7 +7396,7 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7305,21 +7404,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7328,19 +7427,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>245</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>370</v>
+        <v>169</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7390,19 +7489,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -7414,7 +7513,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7422,44 +7521,46 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7483,13 +7584,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7507,19 +7608,19 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -7539,10 +7640,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7562,20 +7663,18 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7600,13 +7699,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7624,7 +7723,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7633,7 +7732,7 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>100</v>
@@ -7642,13 +7741,13 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7656,10 +7755,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7667,7 +7766,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7682,17 +7781,15 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7741,16 +7838,16 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7759,13 +7856,13 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>133</v>
+        <v>377</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7773,10 +7870,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7790,7 +7887,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>76</v>
@@ -7799,13 +7896,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7832,13 +7929,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7856,7 +7953,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7871,27 +7968,27 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7899,10 +7996,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>89</v>
@@ -7914,15 +8011,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7959,23 +8058,25 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
@@ -7984,37 +8085,35 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -8029,13 +8128,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>401</v>
+        <v>90</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>239</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
+        <v>240</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8086,31 +8185,31 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>241</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>243</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -8118,21 +8217,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8144,15 +8243,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8162,7 +8263,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8189,31 +8290,31 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -8225,7 +8326,7 @@
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8233,21 +8334,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8256,19 +8357,19 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8306,31 +8407,31 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>283</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8342,7 +8443,7 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>76</v>
@@ -8350,10 +8451,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8376,16 +8477,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>417</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8411,13 +8512,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8435,7 +8536,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8459,18 +8560,18 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>422</v>
+        <v>133</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8493,15 +8594,17 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8550,7 +8653,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8559,7 +8662,7 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8574,18 +8677,18 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8593,7 +8696,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8608,15 +8711,17 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>431</v>
+        <v>266</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8665,16 +8770,16 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8689,22 +8794,20 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>435</v>
+        <v>133</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8713,10 +8816,10 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
@@ -8725,13 +8828,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8782,7 +8885,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8797,27 +8900,27 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8828,10 +8931,10 @@
         <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>76</v>
@@ -8840,13 +8943,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>274</v>
+        <v>434</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8858,70 +8961,68 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AC60" s="2"/>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>76</v>
@@ -8929,21 +9030,23 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8955,17 +9058,15 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -9002,19 +9103,19 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>283</v>
+        <v>431</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9026,19 +9127,19 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>277</v>
+        <v>437</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>76</v>
@@ -9049,7 +9150,7 @@
         <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9057,7 +9158,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -9069,20 +9170,18 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>417</v>
+        <v>90</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>418</v>
+        <v>239</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9092,7 +9191,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -9131,7 +9230,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>421</v>
+        <v>241</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9140,10 +9239,10 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -9155,29 +9254,29 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>422</v>
+        <v>243</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -9186,18 +9285,20 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>245</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9234,31 +9335,31 @@
         <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>427</v>
+        <v>248</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -9270,18 +9371,18 @@
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>428</v>
+        <v>243</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9289,7 +9390,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9304,15 +9405,17 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9361,10 +9464,10 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>88</v>
@@ -9385,7 +9488,7 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>133</v>
@@ -9393,10 +9496,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9410,22 +9513,22 @@
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9476,7 +9579,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9488,7 +9591,7 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>448</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -9500,18 +9603,18 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9519,7 +9622,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9531,16 +9634,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>327</v>
+        <v>462</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>273</v>
+        <v>463</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>274</v>
+        <v>464</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9591,19 +9694,19 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -9615,29 +9718,31 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>277</v>
+        <v>466</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9649,17 +9754,15 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>432</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>280</v>
+        <v>469</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9708,7 +9811,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>283</v>
+        <v>431</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9720,19 +9823,19 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>277</v>
+        <v>437</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>76</v>
@@ -9740,46 +9843,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9788,7 +9887,7 @@
         <v>76</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>76</v>
+        <v>468</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>76</v>
@@ -9827,19 +9926,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9851,7 +9950,7 @@
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>76</v>
@@ -9859,21 +9958,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9885,15 +9984,17 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
+        <v>245</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9930,31 +10031,31 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>453</v>
+        <v>248</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -9966,7 +10067,7 @@
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>457</v>
+        <v>243</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>76</v>
@@ -9974,10 +10075,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9997,19 +10098,19 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10035,13 +10136,13 @@
         <v>76</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>463</v>
+        <v>76</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>76</v>
@@ -10059,7 +10160,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10074,7 +10175,7 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -10083,18 +10184,18 @@
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>466</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10114,16 +10215,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10150,11 +10251,13 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>470</v>
+        <v>76</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -10172,7 +10275,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10187,7 +10290,7 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -10196,18 +10299,18 @@
         <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>473</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10215,7 +10318,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10227,20 +10330,18 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>205</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10265,11 +10366,13 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>478</v>
+        <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10287,10 +10390,10 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>88</v>
@@ -10302,7 +10405,7 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -10311,18 +10414,18 @@
         <v>76</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>481</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10336,7 +10439,7 @@
         <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>76</v>
@@ -10345,17 +10448,15 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>483</v>
+        <v>351</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -10404,7 +10505,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10413,10 +10514,10 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>479</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -10428,18 +10529,18 @@
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10462,17 +10563,15 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>491</v>
+        <v>239</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10521,7 +10620,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>489</v>
+        <v>241</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10530,10 +10629,10 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>456</v>
+        <v>242</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -10545,22 +10644,22 @@
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>494</v>
+        <v>243</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>495</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10579,16 +10678,16 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>497</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>498</v>
+        <v>245</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>499</v>
+        <v>246</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>500</v>
+        <v>169</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10638,7 +10737,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>496</v>
+        <v>248</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10650,26 +10749,956 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y79" s="2"/>
+      <c r="Z79" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AO75" t="s" s="2">
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y80" s="2"/>
+      <c r="Z80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO75">
+  <autoFilter ref="A1:AO83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10679,7 +11708,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -749,10 +749,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/concept-medication-oncofair-valueset</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1593,7 +1590,10 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/ValueSet/voie-administration-valueset</t>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
     <t>voieAdministration</t>
@@ -2034,8 +2034,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.48828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.98828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4800,13 +4800,11 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y24" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4842,24 +4840,24 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4885,10 +4883,10 @@
         <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4939,31 +4937,31 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI25" t="s" s="2">
+      <c r="AJ25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>76</v>
@@ -4971,10 +4969,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5000,10 +4998,10 @@
         <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>169</v>
@@ -5047,7 +5045,7 @@
         <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
@@ -5056,7 +5054,7 @@
         <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5080,7 +5078,7 @@
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>76</v>
@@ -5088,10 +5086,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5117,10 +5115,10 @@
         <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5171,7 +5169,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5203,10 +5201,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5232,10 +5230,10 @@
         <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5286,31 +5284,31 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
+      <c r="AJ28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -5318,10 +5316,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5347,10 +5345,10 @@
         <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>169</v>
@@ -5394,7 +5392,7 @@
         <v>138</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>76</v>
@@ -5403,7 +5401,7 @@
         <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5427,7 +5425,7 @@
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>76</v>
@@ -5435,10 +5433,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5461,19 +5459,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5483,46 +5481,46 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5546,18 +5544,18 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5580,19 +5578,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5641,7 +5639,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5665,18 +5663,18 @@
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5699,13 +5697,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5756,7 +5754,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5788,10 +5786,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5814,13 +5812,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5871,7 +5869,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -5889,24 +5887,24 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5929,13 +5927,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5986,7 +5984,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6004,24 +6002,24 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6044,13 +6042,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6101,7 +6099,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6122,10 +6120,10 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -6133,10 +6131,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6159,13 +6157,13 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6204,7 +6202,7 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
@@ -6214,7 +6212,7 @@
         <v>139</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>88</v>
@@ -6232,27 +6230,27 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
@@ -6274,13 +6272,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6331,7 +6329,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>88</v>
@@ -6349,24 +6347,24 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6392,10 +6390,10 @@
         <v>90</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6446,31 +6444,31 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI38" t="s" s="2">
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6478,10 +6476,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6507,10 +6505,10 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>169</v>
@@ -6554,7 +6552,7 @@
         <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
@@ -6563,7 +6561,7 @@
         <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6587,7 +6585,7 @@
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6595,10 +6593,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6621,16 +6619,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6680,42 +6678,42 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6738,69 +6736,69 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6808,33 +6806,33 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6857,13 +6855,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6914,7 +6912,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6935,10 +6933,10 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6946,10 +6944,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6972,13 +6970,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7029,7 +7027,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7061,10 +7059,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7090,10 +7088,10 @@
         <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7124,7 +7122,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -7142,7 +7140,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7174,10 +7172,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7200,13 +7198,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7257,7 +7255,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7275,24 +7273,24 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7315,13 +7313,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7372,31 +7370,31 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI46" t="s" s="2">
+      <c r="AJ46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7404,10 +7402,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7433,10 +7431,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>169</v>
@@ -7489,7 +7487,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7513,7 +7511,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7521,14 +7519,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7550,10 +7548,10 @@
         <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>169</v>
@@ -7608,7 +7606,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7640,10 +7638,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7669,10 +7667,10 @@
         <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7702,11 +7700,11 @@
         <v>208</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7723,7 +7721,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7741,13 +7739,13 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7755,10 +7753,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7781,13 +7779,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7838,7 +7836,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7856,13 +7854,13 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7870,10 +7868,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7896,13 +7894,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7932,11 +7930,11 @@
         <v>208</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7953,7 +7951,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7971,24 +7969,24 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8011,16 +8009,16 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8070,7 +8068,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8085,27 +8083,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8131,10 +8129,10 @@
         <v>90</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8185,31 +8183,31 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI53" t="s" s="2">
+      <c r="AJ53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -8217,10 +8215,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8246,10 +8244,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>169</v>
@@ -8293,7 +8291,7 @@
         <v>138</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>76</v>
@@ -8302,7 +8300,7 @@
         <v>139</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8326,7 +8324,7 @@
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8334,10 +8332,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8360,16 +8358,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8419,16 +8417,16 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8451,10 +8449,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8480,13 +8478,13 @@
         <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8512,31 +8510,31 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Z56" t="s" s="2">
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8568,10 +8566,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8597,13 +8595,13 @@
         <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8653,16 +8651,16 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8677,7 +8675,7 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>76</v>
@@ -8685,10 +8683,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8711,16 +8709,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8770,7 +8768,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8779,7 +8777,7 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8802,10 +8800,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8828,13 +8826,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8885,7 +8883,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8900,27 +8898,27 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8943,13 +8941,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8988,7 +8986,7 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
@@ -8998,7 +8996,7 @@
         <v>139</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9016,13 +9014,13 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>76</v>
@@ -9030,13 +9028,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>76</v>
@@ -9058,13 +9056,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9115,7 +9113,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9130,16 +9128,16 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>76</v>
@@ -9147,10 +9145,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9176,10 +9174,10 @@
         <v>90</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9191,7 +9189,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -9230,31 +9228,31 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI62" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI62" t="s" s="2">
+      <c r="AJ62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>76</v>
@@ -9262,10 +9260,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9291,10 +9289,10 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>169</v>
@@ -9338,7 +9336,7 @@
         <v>138</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>76</v>
@@ -9347,7 +9345,7 @@
         <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9371,7 +9369,7 @@
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>76</v>
@@ -9379,10 +9377,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9405,16 +9403,16 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9464,7 +9462,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9488,7 +9486,7 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>133</v>
@@ -9496,10 +9494,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9522,13 +9520,13 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9579,7 +9577,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9603,7 +9601,7 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>133</v>
@@ -9611,10 +9609,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9637,13 +9635,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9694,7 +9692,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>88</v>
@@ -9718,7 +9716,7 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>133</v>
@@ -9726,13 +9724,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>76</v>
@@ -9754,13 +9752,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9811,7 +9809,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9826,16 +9824,16 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>76</v>
@@ -9843,10 +9841,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9872,10 +9870,10 @@
         <v>90</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9887,7 +9885,7 @@
         <v>76</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>76</v>
@@ -9926,31 +9924,31 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI68" t="s" s="2">
+      <c r="AJ68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>76</v>
@@ -9958,10 +9956,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9987,10 +9985,10 @@
         <v>135</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>169</v>
@@ -10034,7 +10032,7 @@
         <v>138</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>76</v>
@@ -10043,7 +10041,7 @@
         <v>139</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10067,7 +10065,7 @@
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>76</v>
@@ -10075,10 +10073,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10101,16 +10099,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10160,7 +10158,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10184,7 +10182,7 @@
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>133</v>
@@ -10192,10 +10190,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10218,13 +10216,13 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10275,7 +10273,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10299,7 +10297,7 @@
         <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>133</v>
@@ -10307,10 +10305,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10333,13 +10331,13 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10390,7 +10388,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -10414,7 +10412,7 @@
         <v>76</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>133</v>
@@ -10422,10 +10420,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10448,13 +10446,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10505,7 +10503,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10517,19 +10515,19 @@
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>76</v>
@@ -10537,10 +10535,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10563,13 +10561,13 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10620,31 +10618,31 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI74" t="s" s="2">
+      <c r="AJ74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>76</v>
@@ -10652,10 +10650,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10681,10 +10679,10 @@
         <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>169</v>
@@ -10737,7 +10735,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10761,7 +10759,7 @@
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>76</v>
@@ -10769,14 +10767,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10798,10 +10796,10 @@
         <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>169</v>
@@ -10856,7 +10854,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10888,10 +10886,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10914,13 +10912,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10971,7 +10969,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10980,7 +10978,7 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -10995,7 +10993,7 @@
         <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>76</v>
@@ -11003,10 +11001,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11032,13 +11030,13 @@
         <v>205</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11067,11 +11065,11 @@
         <v>208</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>76</v>
       </c>
@@ -11088,7 +11086,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11103,27 +11101,27 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>497</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11149,10 +11147,10 @@
         <v>205</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11179,9 +11177,11 @@
         <v>76</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="Z79" t="s" s="2">
         <v>501</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11442,7 +11442,7 @@
         <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>100</v>
@@ -11559,7 +11559,7 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>100</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="514">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -807,340 +807,284 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="element"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>CodeableReference.concept</t>
   </si>
   <si>
-    <t>MedicationAdministration.medication.concept.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>MedicationAdministration.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="element"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.text</t>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who received medication</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>PID-3 Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter administered as part of</t>
+  </si>
+  <si>
+    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>PV1-19 Visit Number</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional information to support administration</t>
+  </si>
+  <si>
+    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
+  </si>
+  <si>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod</t>
+  </si>
+  <si>
+    <t>occurencePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.start</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Actual start date and time of administration of the administration element</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>dateHeureDebutEffective</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.end</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].end</t>
+  </si>
+  <si>
+    <t>Effective date and time for ending administration of the administration element</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>dateHeureFinEffective</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.recorded</t>
+  </si>
+  <si>
+    <t>When the MedicationAdministration was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.isSubPotent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Full dose was not administered</t>
+  </si>
+  <si>
+    <t>An indication that the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subPotentReason</t>
+  </si>
+  <si>
+    <t>Reason full dose was not administered</t>
+  </si>
+  <si>
+    <t>The reason or reasons why the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-subpotent-reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who or what performed the medication administration and what type of performance they did</t>
+  </si>
+  <si>
+    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>RXA-10 Administering Provider / PRT-5 Participation Person: PRT-4 Participation='AP' (RXA-10 is deprecated)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Reference to a resource (by instance)</t>
-  </si>
-  <si>
-    <t>A reference to a resource the provides exact details about the information being referenced.</t>
-  </si>
-  <si>
-    <t>CodeableReference.reference</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Who received medication</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject[x]</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>PID-3 Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter administered as part of</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>PV1-19 Visit Number</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additional information to support administration</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod</t>
-  </si>
-  <si>
-    <t>occurencePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.start</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Actual start date and time of administration of the administration element</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>dateHeureDebutEffective</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]:occurencePeriod.end</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x].end</t>
-  </si>
-  <si>
-    <t>Effective date and time for ending administration of the administration element</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>dateHeureFinEffective</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.recorded</t>
-  </si>
-  <si>
-    <t>When the MedicationAdministration was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.isSubPotent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Full dose was not administered</t>
-  </si>
-  <si>
-    <t>An indication that the full dose was not administered.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subPotentReason</t>
-  </si>
-  <si>
-    <t>Reason full dose was not administered</t>
-  </si>
-  <si>
-    <t>The reason or reasons why the full dose was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-subpotent-reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who or what performed the medication administration and what type of performance they did</t>
-  </si>
-  <si>
-    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>RXA-10 Administering Provider / PRT-5 Participation Person: PRT-4 Participation='AP' (RXA-10 is deprecated)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.extension</t>
@@ -2001,7 +1945,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2011,7 +1955,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="67.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="34.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -5130,7 +5074,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5169,7 +5113,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5201,10 +5145,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5224,16 +5168,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5284,7 +5228,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5293,10 +5237,10 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -5308,7 +5252,7 @@
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -5316,21 +5260,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -5339,20 +5283,18 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5389,54 +5331,54 @@
         <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5447,7 +5389,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5456,23 +5398,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5481,7 +5419,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5520,13 +5458,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -5538,24 +5476,24 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5566,7 +5504,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5575,23 +5513,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5639,13 +5573,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -5660,21 +5594,21 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5682,7 +5616,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5697,13 +5631,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5742,22 +5676,20 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -5772,38 +5704,40 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>76</v>
@@ -5812,13 +5746,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5869,7 +5803,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -5887,24 +5821,24 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5927,13 +5861,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5984,7 +5918,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5993,37 +5927,37 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6042,15 +5976,17 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6087,19 +6023,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6111,7 +6047,7 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -6120,10 +6056,10 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -6131,10 +6067,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6157,15 +6093,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6202,56 +6140,56 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6263,7 +6201,7 @@
         <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>76</v>
@@ -6272,20 +6210,24 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6329,42 +6271,42 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6384,16 +6326,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6444,7 +6386,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6395,10 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -6465,10 +6407,10 @@
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6476,21 +6418,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6502,17 +6444,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6549,31 +6489,31 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6585,7 +6525,7 @@
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6593,10 +6533,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6604,10 +6544,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6616,20 +6556,18 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6654,13 +6592,11 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6678,22 +6614,22 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6702,18 +6638,18 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6724,7 +6660,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6736,24 +6672,20 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q41" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6797,42 +6729,42 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6852,16 +6784,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6912,7 +6844,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6921,10 +6853,10 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6933,10 +6865,10 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6944,21 +6876,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6970,15 +6902,17 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -7027,19 +6961,19 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -7051,7 +6985,7 @@
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -7059,14 +6993,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7079,22 +7013,26 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -7118,11 +7056,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -7140,7 +7080,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7152,7 +7092,7 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -7164,7 +7104,7 @@
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>76</v>
@@ -7172,10 +7112,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7186,7 +7126,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -7195,16 +7135,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7231,13 +7171,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -7255,13 +7195,13 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
@@ -7273,24 +7213,24 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7298,7 +7238,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -7310,16 +7250,16 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7370,31 +7310,31 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7409,7 +7349,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7428,17 +7368,15 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7463,13 +7401,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7487,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7499,66 +7437,64 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>242</v>
+        <v>365</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7606,42 +7542,42 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>133</v>
+        <v>374</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7664,13 +7600,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>238</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7697,13 +7633,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7721,7 +7657,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7730,22 +7666,22 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7753,21 +7689,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7776,18 +7712,20 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7824,43 +7762,43 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>376</v>
+        <v>242</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7868,10 +7806,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7882,7 +7820,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7891,10 +7829,10 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>379</v>
@@ -7902,7 +7840,9 @@
       <c r="M51" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7927,40 +7867,40 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AA51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7969,24 +7909,24 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8000,25 +7940,25 @@
         <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8044,13 +7984,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -8068,7 +8008,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8083,27 +8023,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>393</v>
+        <v>133</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8123,18 +8063,20 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>238</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -8183,7 +8125,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>240</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8192,10 +8134,10 @@
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>241</v>
+        <v>397</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -8207,7 +8149,7 @@
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>242</v>
+        <v>398</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -8215,21 +8157,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8238,19 +8180,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>245</v>
+        <v>401</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>169</v>
+        <v>402</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8288,31 +8230,31 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>247</v>
+        <v>403</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -8324,7 +8266,7 @@
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8332,10 +8274,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8346,29 +8288,27 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>265</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8417,22 +8357,22 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -8441,18 +8381,18 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8460,32 +8400,30 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>102</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8510,37 +8448,35 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
@@ -8552,13 +8488,13 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>76</v>
@@ -8566,18 +8502,20 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8589,20 +8527,18 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>173</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N57" t="s" s="2">
         <v>414</v>
       </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8651,25 +8587,25 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8683,10 +8619,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8694,7 +8630,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8706,20 +8642,18 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8729,7 +8663,7 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>76</v>
@@ -8768,7 +8702,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8777,10 +8711,10 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
@@ -8792,7 +8726,7 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>76</v>
@@ -8800,14 +8734,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8817,7 +8751,7 @@
         <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
@@ -8826,15 +8760,17 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8871,19 +8807,19 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>247</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8895,10 +8831,10 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8907,18 +8843,18 @@
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8926,30 +8862,32 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8986,23 +8924,25 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
@@ -9014,34 +8954,32 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9053,16 +8991,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>431</v>
+        <v>297</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9113,13 +9051,13 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
@@ -9128,27 +9066,27 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9168,16 +9106,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>90</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9189,7 +9127,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -9228,19 +9166,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>240</v>
+        <v>445</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -9252,29 +9190,31 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>242</v>
+        <v>446</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -9286,17 +9226,15 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>412</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9333,19 +9271,19 @@
         <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>247</v>
+        <v>411</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9357,19 +9295,19 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>76</v>
@@ -9377,10 +9315,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9388,7 +9326,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9400,20 +9338,18 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>447</v>
+        <v>90</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>448</v>
+        <v>238</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9423,7 +9359,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -9462,7 +9398,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>451</v>
+        <v>240</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9471,10 +9407,10 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -9486,29 +9422,29 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>242</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -9517,18 +9453,20 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>244</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9565,31 +9503,31 @@
         <v>76</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>457</v>
+        <v>247</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -9601,18 +9539,18 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>458</v>
+        <v>242</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9620,7 +9558,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9635,15 +9573,17 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9692,10 +9632,10 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
@@ -9716,7 +9656,7 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>133</v>
@@ -9724,14 +9664,12 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9749,16 +9687,16 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>431</v>
+        <v>297</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9809,13 +9747,13 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
@@ -9824,27 +9762,27 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>469</v>
+        <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9864,16 +9802,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>90</v>
+        <v>442</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9885,7 +9823,7 @@
         <v>76</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>76</v>
@@ -9924,19 +9862,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>240</v>
+        <v>445</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9948,32 +9886,32 @@
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>242</v>
+        <v>446</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>76</v>
@@ -9982,17 +9920,15 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>244</v>
+        <v>457</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -10029,31 +9965,31 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>247</v>
+        <v>456</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>141</v>
+        <v>459</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -10065,7 +10001,7 @@
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>242</v>
+        <v>460</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>76</v>
@@ -10073,10 +10009,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10096,20 +10032,18 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>447</v>
+        <v>338</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>448</v>
+        <v>238</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10158,7 +10092,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>451</v>
+        <v>240</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10167,10 +10101,10 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
@@ -10182,29 +10116,29 @@
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>452</v>
+        <v>242</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -10213,18 +10147,20 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>455</v>
+        <v>244</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10273,19 +10209,19 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>457</v>
+        <v>247</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
@@ -10297,50 +10233,54 @@
         <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>458</v>
+        <v>242</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10388,19 +10328,19 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -10412,18 +10352,18 @@
         <v>76</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>465</v>
+        <v>133</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10437,7 +10377,7 @@
         <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>76</v>
@@ -10446,13 +10386,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10503,7 +10443,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10512,10 +10452,10 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>478</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -10527,7 +10467,7 @@
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>76</v>
@@ -10535,10 +10475,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10561,15 +10501,17 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10594,13 +10536,13 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -10618,7 +10560,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>240</v>
+        <v>469</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10627,13 +10569,13 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -10642,29 +10584,29 @@
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>242</v>
+        <v>476</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>76</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -10676,17 +10618,15 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>244</v>
+        <v>479</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10711,13 +10651,13 @@
         <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>76</v>
+        <v>481</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>76</v>
@@ -10735,22 +10675,22 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>247</v>
+        <v>478</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>76</v>
+        <v>483</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10759,54 +10699,52 @@
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10830,13 +10768,11 @@
         <v>76</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>76</v>
@@ -10854,22 +10790,22 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>363</v>
+        <v>486</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10878,18 +10814,18 @@
         <v>76</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>76</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10912,15 +10848,17 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>265</v>
+        <v>495</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10969,7 +10907,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10978,7 +10916,7 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -10993,18 +10931,18 @@
         <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>76</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11027,16 +10965,16 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11062,13 +11000,13 @@
         <v>76</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>492</v>
+        <v>76</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>493</v>
+        <v>76</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>76</v>
@@ -11086,7 +11024,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11095,13 +11033,13 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>494</v>
+        <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -11110,18 +11048,18 @@
         <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11132,7 +11070,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -11144,15 +11082,17 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -11177,13 +11117,13 @@
         <v>76</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>500</v>
+        <v>76</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>501</v>
+        <v>76</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>76</v>
@@ -11201,13 +11141,13 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
@@ -11216,7 +11156,7 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>502</v>
+        <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
@@ -11225,480 +11165,14 @@
         <v>76</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y80" s="2"/>
-      <c r="Z80" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AO83" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO83">
+  <autoFilter ref="A1:AO79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11708,7 +11182,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,6 +505,9 @@
 </t>
   </si>
   <si>
+    <t>OncoFAIRMAElementTraceability</t>
+  </si>
+  <si>
     <t>Extension created as part of OncoFAIR containing the batch and serial number of the administered component/administration element. 
 Extension créée dans le cadre d'OncoFAIR contenant le numéro de lot et de série du composant administré/élément d'administration.</t>
   </si>
@@ -517,6 +520,9 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-ma-element-plannedperiod}
 </t>
+  </si>
+  <si>
+    <t>OncoFAIRMAElementPlannedPeriod</t>
   </si>
   <si>
     <t>Extension created as part of OncoFAIR containing the planned start and end date of administration. 
@@ -3316,10 +3322,10 @@
         <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3402,13 +3408,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -3430,13 +3436,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3519,13 +3525,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3547,13 +3553,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3636,14 +3642,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3665,16 +3671,16 @@
         <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3723,7 +3729,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3755,10 +3761,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3781,16 +3787,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3840,7 +3846,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3855,16 +3861,16 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3872,10 +3878,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3898,13 +3904,13 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3955,7 +3961,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3979,7 +3985,7 @@
         <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3987,10 +3993,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4013,16 +4019,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4072,7 +4078,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4087,16 +4093,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>76</v>
@@ -4104,10 +4110,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4133,13 +4139,13 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4168,10 +4174,10 @@
         <v>112</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -4189,7 +4195,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -4207,24 +4213,24 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4247,13 +4253,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4280,13 +4286,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -4304,7 +4310,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4322,24 +4328,24 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4362,13 +4368,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4395,19 +4401,19 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
@@ -4417,7 +4423,7 @@
         <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4432,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4441,7 +4447,7 @@
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
@@ -4449,13 +4455,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
@@ -4477,13 +4483,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4510,13 +4516,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4534,7 +4540,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4549,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4558,7 +4564,7 @@
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4566,13 +4572,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
@@ -4594,13 +4600,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4627,13 +4633,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4651,7 +4657,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4666,7 +4672,7 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4675,7 +4681,7 @@
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
@@ -4683,10 +4689,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4709,16 +4715,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4748,7 +4754,7 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4766,7 +4772,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -4784,24 +4790,24 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4827,10 +4833,10 @@
         <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4881,7 +4887,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4890,7 +4896,7 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
@@ -4905,7 +4911,7 @@
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>76</v>
@@ -4913,14 +4919,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4942,13 +4948,13 @@
         <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4989,7 +4995,7 @@
         <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
@@ -4998,7 +5004,7 @@
         <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5022,7 +5028,7 @@
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>76</v>
@@ -5030,10 +5036,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5056,13 +5062,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5074,7 +5080,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5113,7 +5119,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5145,10 +5151,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5171,13 +5177,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5228,7 +5234,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5260,10 +5266,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5286,13 +5292,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5343,7 +5349,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5361,24 +5367,24 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5401,13 +5407,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5458,7 +5464,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5476,24 +5482,24 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5516,13 +5522,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5573,7 +5579,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5594,10 +5600,10 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>76</v>
@@ -5605,10 +5611,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5631,13 +5637,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5676,7 +5682,7 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -5686,7 +5692,7 @@
         <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>88</v>
@@ -5704,27 +5710,27 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
@@ -5746,13 +5752,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5803,7 +5809,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -5821,24 +5827,24 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5864,10 +5870,10 @@
         <v>90</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5918,7 +5924,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5927,7 +5933,7 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5942,7 +5948,7 @@
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5950,14 +5956,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5979,13 +5985,13 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6026,7 +6032,7 @@
         <v>138</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
@@ -6035,7 +6041,7 @@
         <v>139</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6059,7 +6065,7 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -6067,10 +6073,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6093,16 +6099,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6152,7 +6158,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6161,13 +6167,13 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -6176,18 +6182,18 @@
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6210,23 +6216,23 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -6271,7 +6277,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6280,13 +6286,13 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -6295,18 +6301,18 @@
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6329,13 +6335,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6386,7 +6392,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6407,10 +6413,10 @@
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6418,10 +6424,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6444,13 +6450,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6501,7 +6507,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6533,10 +6539,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6559,13 +6565,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6592,11 +6598,11 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6614,7 +6620,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6646,10 +6652,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6672,13 +6678,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6729,7 +6735,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6747,24 +6753,24 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6787,13 +6793,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6844,7 +6850,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6853,7 +6859,7 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
@@ -6868,7 +6874,7 @@
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6876,14 +6882,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6905,13 +6911,13 @@
         <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6961,7 +6967,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6985,7 +6991,7 @@
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6993,14 +6999,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7022,16 +7028,16 @@
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7080,7 +7086,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7112,10 +7118,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7138,13 +7144,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7171,13 +7177,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -7195,7 +7201,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7213,13 +7219,13 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -7227,10 +7233,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7253,13 +7259,13 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7310,7 +7316,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>88</v>
@@ -7328,13 +7334,13 @@
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7342,10 +7348,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7368,13 +7374,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7401,13 +7407,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7425,7 +7431,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7443,24 +7449,24 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7483,16 +7489,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7542,7 +7548,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7557,27 +7563,27 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7603,10 +7609,10 @@
         <v>90</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7657,7 +7663,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7666,7 +7672,7 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7681,7 +7687,7 @@
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7689,14 +7695,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7718,13 +7724,13 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7765,7 +7771,7 @@
         <v>138</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
@@ -7774,7 +7780,7 @@
         <v>139</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7798,7 +7804,7 @@
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7806,10 +7812,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7832,16 +7838,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7891,7 +7897,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7900,7 +7906,7 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7923,10 +7929,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7952,13 +7958,13 @@
         <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7984,13 +7990,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -8008,7 +8014,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8040,10 +8046,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8066,16 +8072,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8125,7 +8131,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8134,7 +8140,7 @@
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -8149,7 +8155,7 @@
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -8157,10 +8163,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8183,16 +8189,16 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8242,7 +8248,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8251,7 +8257,7 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8274,10 +8280,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8300,13 +8306,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8357,7 +8363,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8372,7 +8378,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -8381,18 +8387,18 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8415,13 +8421,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8460,7 +8466,7 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
@@ -8470,7 +8476,7 @@
         <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8488,13 +8494,13 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>76</v>
@@ -8502,13 +8508,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>76</v>
@@ -8530,13 +8536,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8587,7 +8593,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8602,16 +8608,16 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>76</v>
@@ -8619,10 +8625,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8648,10 +8654,10 @@
         <v>90</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8663,7 +8669,7 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>76</v>
@@ -8702,7 +8708,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8711,7 +8717,7 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -8726,7 +8732,7 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>76</v>
@@ -8734,14 +8740,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8763,13 +8769,13 @@
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8810,7 +8816,7 @@
         <v>138</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
@@ -8819,7 +8825,7 @@
         <v>139</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8843,7 +8849,7 @@
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>76</v>
@@ -8851,10 +8857,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8877,16 +8883,16 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8936,7 +8942,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8960,7 +8966,7 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>133</v>
@@ -8968,10 +8974,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8994,13 +9000,13 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9051,7 +9057,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9075,7 +9081,7 @@
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>133</v>
@@ -9083,10 +9089,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9109,13 +9115,13 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9166,7 +9172,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>88</v>
@@ -9190,7 +9196,7 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>133</v>
@@ -9198,13 +9204,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
@@ -9226,13 +9232,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9283,7 +9289,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9298,16 +9304,16 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>76</v>
@@ -9315,10 +9321,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9344,10 +9350,10 @@
         <v>90</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9359,7 +9365,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -9398,7 +9404,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9407,7 +9413,7 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
@@ -9422,7 +9428,7 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>76</v>
@@ -9430,14 +9436,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9459,13 +9465,13 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9506,7 +9512,7 @@
         <v>138</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
@@ -9515,7 +9521,7 @@
         <v>139</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9539,7 +9545,7 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>76</v>
@@ -9547,10 +9553,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9573,16 +9579,16 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9632,7 +9638,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9662,7 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>133</v>
@@ -9664,10 +9670,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9690,13 +9696,13 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9747,7 +9753,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9771,7 +9777,7 @@
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>133</v>
@@ -9779,10 +9785,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9805,13 +9811,13 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9862,7 +9868,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>88</v>
@@ -9886,7 +9892,7 @@
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>133</v>
@@ -9894,10 +9900,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9920,13 +9926,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9977,7 +9983,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9989,7 +9995,7 @@
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -10001,7 +10007,7 @@
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>76</v>
@@ -10009,10 +10015,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10035,13 +10041,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10092,7 +10098,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10101,7 +10107,7 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
@@ -10116,7 +10122,7 @@
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>76</v>
@@ -10124,14 +10130,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10153,13 +10159,13 @@
         <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10209,7 +10215,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10233,7 +10239,7 @@
         <v>76</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>76</v>
@@ -10241,14 +10247,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10270,16 +10276,16 @@
         <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10328,7 +10334,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10360,10 +10366,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10386,13 +10392,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10443,7 +10449,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10458,7 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10467,7 +10473,7 @@
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>76</v>
@@ -10475,10 +10481,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10501,16 +10507,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10536,13 +10542,13 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -10560,7 +10566,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10575,7 +10581,7 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -10584,18 +10590,18 @@
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10618,13 +10624,13 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10651,13 +10657,13 @@
         <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>76</v>
@@ -10675,7 +10681,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10690,7 +10696,7 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10699,18 +10705,18 @@
         <v>76</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10733,16 +10739,16 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10772,7 +10778,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>76</v>
@@ -10790,7 +10796,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10805,7 +10811,7 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10814,18 +10820,18 @@
         <v>76</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10848,16 +10854,16 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10907,7 +10913,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10916,7 +10922,7 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -10931,18 +10937,18 @@
         <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10965,16 +10971,16 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11024,7 +11030,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11033,7 +11039,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
@@ -11048,18 +11054,18 @@
         <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11082,16 +11088,16 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11141,7 +11147,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11165,7 +11171,7 @@
         <v>76</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>76</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -721,16 +721,16 @@
 </t>
   </si>
   <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>codeElementAdministration</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category:code</t>
-  </si>
-  <si>
-    <t>code</t>
   </si>
   <si>
     <t>MedicationAdministration.category:nature</t>
@@ -969,7 +969,7 @@
 </t>
   </si>
   <si>
-    <t>Actual start date and time of administration of the administration element</t>
+    <t>Effective date and time for startinf administration of the administration element</t>
   </si>
   <si>
     <t>The start of the period. The boundary is inclusive.</t>
@@ -4449,16 +4449,16 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>217</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>20</v>
@@ -4566,16 +4566,16 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4692,7 +4692,7 @@
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
